--- a/project/Phase2/Sprint4/Sprint Backlog.xlsx
+++ b/project/Phase2/Sprint4/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barba\Documents\3ano\es\me_scrum_master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79C505E-EAC9-4CAF-9DE6-6F16A8D33FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A31562-5E31-4235-A376-DD839DCB292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="32">
   <si>
     <t>Backlog</t>
   </si>
@@ -51,16 +51,6 @@
   </si>
   <si>
     <t>-&gt;</t>
-  </si>
-  <si>
-    <t>Identify 3 Pattern Designs 
-By: Gonçalo Rodrigues 
-Reviewers: Joana Cruz, Bárbara Correia. Gonçalo Gomes</t>
-  </si>
-  <si>
-    <t>Identify 3 Desing Patterns
-By: Gonçalo Gomes
-Reviewers: Bárbara Correia, Joana Cruz, Guilherme Santana</t>
   </si>
   <si>
     <t>User adds new resource; User removes a resource; User selects a resource (and can edit it)
@@ -129,9 +119,6 @@
     <t>Create the button to add a new tag on the tags tab     By: Bárbara Correia and Joana Cruz</t>
   </si>
   <si>
-    <t>Create the button to remove a tag on the tags tab                                                By: Joana Cruz</t>
-  </si>
-  <si>
     <t>Create the panel to list tasks by tags                          By: Bárbara Correia and Joana Cruz</t>
   </si>
   <si>
@@ -144,27 +131,38 @@
     <t>Create the panel to list tasks by tags                                         By: Bárbara Correia and Joana Cruz</t>
   </si>
   <si>
-    <t>Create the tags tab and make it function                 By: Bárbara Correia and Joana Cruz            Reviewers: Gonçalo Rodrigues and Guilherme Santana</t>
+    <t>Create the panel to list tasks by tags                                     By: Bárbara Correia and Joana Cruz</t>
   </si>
   <si>
-    <t>Create the button to add a new tag on the tags tab     By: Bárbara Correia and Joana Cruz            Reviewers: Gonçalo Rodrigues and Guilherme Santana</t>
+    <t>Create the button to add a new tag on the tags tab         By: Bárbara Correia and Joana Cruz</t>
   </si>
   <si>
-    <t>Create the button to remove a tag on the tags tab                                                By: Joana Cruz            Reviewers: Gonçalo Rodrigues and Guilherme Santana</t>
+    <t>Creation of FavoritesManager and FavoritesManagerImpl                                                By: Gonçalo Rodrigues</t>
   </si>
   <si>
-    <t>Create the panel to list tasks by tags                          By: Bárbara Correia and Joana Cruz            Reviewers: Gonçalo Rodrigues and Guilherme Santana</t>
+    <t>Create panel and tool bar for favorites                            By: Guilherme Santana and Gonçalo Rodrigues</t>
+  </si>
+  <si>
+    <t>Create favorite option on task properties  
+By: Guilherme Santana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,41 +274,60 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -319,19 +336,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -340,7 +350,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:V985"/>
+  <dimension ref="B2:V986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -636,138 +650,138 @@
     </row>
     <row r="6" spans="2:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="20" t="s">
-        <v>18</v>
+      <c r="C6" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="21"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1"/>
       <c r="E7" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
-      <c r="C8" s="21"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="1"/>
       <c r="E8" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
-      <c r="C9" s="21"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="1"/>
       <c r="E9" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="1"/>
       <c r="E10" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -786,240 +800,264 @@
     </row>
     <row r="12" spans="2:12" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-      <c r="C12" s="20" t="s">
-        <v>19</v>
+      <c r="C12" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="I12" s="18"/>
       <c r="J12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:12" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="1"/>
       <c r="E13" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="E14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>29</v>
+      </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:12" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="23" t="s">
-        <v>24</v>
+      <c r="E16" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>24</v>
+      <c r="G16" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="I16" s="19"/>
       <c r="J16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="23" t="s">
-        <v>24</v>
+      <c r="K16" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:22" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="21"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="24" t="s">
-        <v>27</v>
+      <c r="E17" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>25</v>
+      <c r="G17" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="I17" s="20"/>
       <c r="J17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="24" t="s">
-        <v>25</v>
+      <c r="K17" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="L17" s="1"/>
       <c r="V17" s="11"/>
     </row>
     <row r="18" spans="2:22" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="21"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="25" t="s">
-        <v>26</v>
+      <c r="E18" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>26</v>
+      <c r="G18" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="I18" s="21"/>
       <c r="J18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="25" t="s">
-        <v>29</v>
+      <c r="K18" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="E19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -1031,8 +1069,8 @@
     </row>
     <row r="24" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -1045,7 +1083,7 @@
     <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -1057,8 +1095,8 @@
     </row>
     <row r="26" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="17"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -1070,8 +1108,8 @@
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -1083,8 +1121,8 @@
     </row>
     <row r="28" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -1096,8 +1134,8 @@
     </row>
     <row r="29" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -1109,8 +1147,8 @@
     </row>
     <row r="30" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -1123,7 +1161,7 @@
     <row r="31" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -1135,8 +1173,8 @@
     </row>
     <row r="32" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="17"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -1148,8 +1186,8 @@
     </row>
     <row r="33" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -1161,8 +1199,8 @@
     </row>
     <row r="34" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="17"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -1174,8 +1212,8 @@
     </row>
     <row r="35" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -1187,8 +1225,8 @@
     </row>
     <row r="36" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="17"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -1201,7 +1239,7 @@
     <row r="37" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -1213,8 +1251,8 @@
     </row>
     <row r="38" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="17"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -1226,8 +1264,8 @@
     </row>
     <row r="39" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="17"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -1239,8 +1277,8 @@
     </row>
     <row r="40" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="17"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -1252,8 +1290,8 @@
     </row>
     <row r="41" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="17"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -1265,8 +1303,8 @@
     </row>
     <row r="42" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -1279,7 +1317,7 @@
     <row r="43" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -1291,8 +1329,8 @@
     </row>
     <row r="44" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="17"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
@@ -1304,8 +1342,8 @@
     </row>
     <row r="45" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="17"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -1317,8 +1355,8 @@
     </row>
     <row r="46" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="17"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -1330,8 +1368,8 @@
     </row>
     <row r="47" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="17"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -1343,8 +1381,8 @@
     </row>
     <row r="48" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="17"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
@@ -1357,7 +1395,7 @@
     <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -1369,8 +1407,8 @@
     </row>
     <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="17"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -1382,8 +1420,8 @@
     </row>
     <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="17"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -1395,8 +1433,8 @@
     </row>
     <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="17"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -1408,8 +1446,8 @@
     </row>
     <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="17"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -1421,8 +1459,8 @@
     </row>
     <row r="54" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="17"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -1435,7 +1473,7 @@
     <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
@@ -1448,7 +1486,7 @@
     <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
@@ -1461,7 +1499,7 @@
     <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
@@ -2033,9 +2071,13 @@
     <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
       <c r="L101" s="1"/>
     </row>
     <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9110,17 +9152,21 @@
       <c r="J985" s="1"/>
       <c r="L985" s="1"/>
     </row>
+    <row r="986" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F986" s="1"/>
+      <c r="H986" s="1"/>
+      <c r="J986" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="C44:C48"/>
     <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C20:C24"/>
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C16:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
